--- a/xlsx_template/energy_consume.xlsx
+++ b/xlsx_template/energy_consume.xlsx
@@ -126,11 +126,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -180,6 +180,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -195,6 +210,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -211,85 +302,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,20 +316,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -326,25 +326,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,13 +398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,19 +446,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,37 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,43 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,11 +918,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,21 +987,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -987,22 +1002,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,145 +1011,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1634,9 +1634,11 @@
   <dimension ref="A1:BQ395"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.56730769230769" defaultRowHeight="21" customHeight="1"/>
